--- a/regions/2/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/2/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -130,6 +130,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -505,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,7 +515,7 @@
     <col min="1" max="1" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -535,7 +536,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -554,7 +555,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <v>2006</v>
@@ -601,9 +602,14 @@
       <c r="P3" s="6">
         <v>2020</v>
       </c>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -652,9 +658,14 @@
       <c r="P4" s="8">
         <v>274.60000000000002</v>
       </c>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="8">
+        <v>228.9</v>
+      </c>
+      <c r="R4" s="8">
+        <v>242.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -703,9 +714,14 @@
       <c r="P5" s="8">
         <v>333.1</v>
       </c>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="8">
+        <v>262.8</v>
+      </c>
+      <c r="R5" s="8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -754,9 +770,14 @@
       <c r="P6" s="11">
         <v>2400</v>
       </c>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="11">
+        <v>1935</v>
+      </c>
+      <c r="R6" s="11">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -805,9 +826,14 @@
       <c r="P7" s="11">
         <v>2183</v>
       </c>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="11">
+        <v>1775</v>
+      </c>
+      <c r="R7" s="11">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -856,9 +882,14 @@
       <c r="P8" s="8">
         <v>1221.9000000000001</v>
       </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="8">
+        <v>1076.2</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1557.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
@@ -907,9 +938,14 @@
       <c r="P9" s="8">
         <v>202.2</v>
       </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="8">
+        <v>171.2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>223.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
@@ -958,9 +994,14 @@
       <c r="P10" s="8">
         <v>32.299999999999997</v>
       </c>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="R10" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
@@ -1009,9 +1050,14 @@
       <c r="P11" s="8">
         <v>130.9</v>
       </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="8">
+        <v>91.5</v>
+      </c>
+      <c r="R11" s="8">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1060,9 +1106,14 @@
       <c r="P12" s="8">
         <v>5.7</v>
       </c>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R12" s="8">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
@@ -1111,9 +1162,14 @@
       <c r="P13" s="8">
         <v>198.3</v>
       </c>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q13" s="8">
+        <v>164.2</v>
+      </c>
+      <c r="R13" s="8">
+        <v>225.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1132,7 +1188,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1151,7 +1207,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>10</v>
       </c>
